--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H2">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I2">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J2">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>221.788196363315</v>
+        <v>89.92188691643278</v>
       </c>
       <c r="R2">
-        <v>1996.093767269835</v>
+        <v>809.296982247895</v>
       </c>
       <c r="S2">
-        <v>0.04530236305979898</v>
+        <v>0.01990438771295746</v>
       </c>
       <c r="T2">
-        <v>0.04530236305979898</v>
+        <v>0.01990438771295746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H3">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I3">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J3">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
-        <v>216.379955536245</v>
+        <v>120.952009878113</v>
       </c>
       <c r="R3">
-        <v>1947.419599826205</v>
+        <v>1088.568088903017</v>
       </c>
       <c r="S3">
-        <v>0.04419767807890215</v>
+        <v>0.02677296686970953</v>
       </c>
       <c r="T3">
-        <v>0.04419767807890215</v>
+        <v>0.02677296686970953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H4">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I4">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J4">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>149.13260030444</v>
+        <v>68.52617755026655</v>
       </c>
       <c r="R4">
-        <v>1342.19340273996</v>
+        <v>616.735597952399</v>
       </c>
       <c r="S4">
-        <v>0.03046176177913641</v>
+        <v>0.01516840508156872</v>
       </c>
       <c r="T4">
-        <v>0.03046176177913641</v>
+        <v>0.01516840508156872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I5">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J5">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N5">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q5">
-        <v>1273.438156551402</v>
+        <v>923.6528588447891</v>
       </c>
       <c r="R5">
-        <v>11460.94340896262</v>
+        <v>8312.875729603102</v>
       </c>
       <c r="S5">
-        <v>0.2601119385442416</v>
+        <v>0.2044523891242826</v>
       </c>
       <c r="T5">
-        <v>0.2601119385442415</v>
+        <v>0.2044523891242826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I6">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J6">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q6">
         <v>1242.38573653114</v>
@@ -818,10 +818,10 @@
         <v>11181.47162878026</v>
       </c>
       <c r="S6">
-        <v>0.2537691843818926</v>
+        <v>0.2750045426865363</v>
       </c>
       <c r="T6">
-        <v>0.2537691843818926</v>
+        <v>0.2750045426865363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I7">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J7">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N7">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q7">
-        <v>856.2725461832356</v>
+        <v>703.8820243933579</v>
       </c>
       <c r="R7">
-        <v>7706.45291564912</v>
+        <v>6334.93821954022</v>
       </c>
       <c r="S7">
-        <v>0.1749018676439704</v>
+        <v>0.1558056797754591</v>
       </c>
       <c r="T7">
-        <v>0.1749018676439704</v>
+        <v>0.1558056797754591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H8">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I8">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J8">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N8">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q8">
-        <v>353.5971139618089</v>
+        <v>440.3953793471773</v>
       </c>
       <c r="R8">
-        <v>3182.37402565628</v>
+        <v>3963.558414124596</v>
       </c>
       <c r="S8">
-        <v>0.07222559674616019</v>
+        <v>0.09748238919483003</v>
       </c>
       <c r="T8">
-        <v>0.07222559674616019</v>
+        <v>0.09748238919483003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H9">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I9">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J9">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>119.145069</v>
       </c>
       <c r="O9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q9">
-        <v>344.97475091716</v>
+        <v>592.366420453093</v>
       </c>
       <c r="R9">
-        <v>3104.77275825444</v>
+        <v>5331.297784077838</v>
       </c>
       <c r="S9">
-        <v>0.07046439652231147</v>
+        <v>0.1311214800440364</v>
       </c>
       <c r="T9">
-        <v>0.07046439652231147</v>
+        <v>0.1311214800440364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H10">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I10">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J10">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N10">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q10">
-        <v>237.7622341041422</v>
+        <v>335.6091936272155</v>
       </c>
       <c r="R10">
-        <v>2139.86010693728</v>
+        <v>3020.482742644939</v>
       </c>
       <c r="S10">
-        <v>0.04856521324358624</v>
+        <v>0.07428775951061981</v>
       </c>
       <c r="T10">
-        <v>0.04856521324358624</v>
+        <v>0.07428775951061979</v>
       </c>
     </row>
   </sheetData>
